--- a/packages/react-boilerplate-app-scripts/template/en_US-src/locale/excel/multi-language(file-position).xlsx
+++ b/packages/react-boilerplate-app-scripts/template/en_US-src/locale/excel/multi-language(file-position).xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -443,6 +443,14 @@
         <v>/view/layout/main/index.jsx</v>
       </c>
       <c r="B9" t="str">
+        <v>Home</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>/view/layout/main/index.jsx</v>
+      </c>
+      <c r="B10" t="str">
         <v>About</v>
       </c>
     </row>
